--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3696.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3696.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.640498038859776</v>
+        <v>2.094470262527466</v>
       </c>
       <c r="B1">
-        <v>4.696962151866174</v>
+        <v>5.52388334274292</v>
       </c>
       <c r="C1">
-        <v>5.976755760701975</v>
+        <v>2.472086906433105</v>
       </c>
       <c r="D1">
-        <v>1.413100006961456</v>
+        <v>1.643358111381531</v>
       </c>
       <c r="E1">
-        <v>0.8845856733593528</v>
+        <v>1.648900032043457</v>
       </c>
     </row>
   </sheetData>
